--- a/Ülesanded.xlsx
+++ b/Ülesanded.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>Mis me tahame?</t>
   </si>
@@ -77,12 +77,74 @@
   <si>
     <t>Header võiks vahelehtedel alati kaasas olla, et saaks sealt liikuda edasi järgmistele vahelehtedele</t>
   </si>
+  <si>
+    <t>font võiks äkki olla headerite jaoks kumar one outline</t>
+  </si>
+  <si>
+    <r>
+      <t>&lt;link href="https://fonts.googleapis.com/css?family=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Roboto Mono"/>
+      </rPr>
+      <t>Kumar+One+Outline</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Roboto Mono"/>
+      </rPr>
+      <t>&amp;display=swap" rel="stylesheet"&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>html:</t>
+  </si>
+  <si>
+    <t>css:</t>
+  </si>
+  <si>
+    <t>font-family: 'Kumar One Outline', cursive;</t>
+  </si>
+  <si>
+    <t>teksti jaoks monteserrat</t>
+  </si>
+  <si>
+    <r>
+      <t>&lt;link href="https://fonts.googleapis.com/css?family=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Roboto Mono"/>
+      </rPr>
+      <t>Montserrat</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Roboto Mono"/>
+      </rPr>
+      <t>&amp;display=swap" rel="stylesheet"&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>font-family: 'Montserrat', sans-serif;</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -119,6 +181,17 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="6"/>
+      <color theme="1"/>
+      <name val="Roboto Mono"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="6"/>
+      <color theme="1"/>
+      <name val="Roboto Mono"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -141,11 +214,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -430,12 +504,13 @@
   <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9.54296875" customWidth="1"/>
+    <col min="12" max="12" width="52.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.35">
@@ -467,11 +542,26 @@
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="M8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="F9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="M9" s="3" t="s">
         <v>6</v>
       </c>
@@ -485,11 +575,26 @@
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="M11" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="F12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="M12" s="3" t="s">
         <v>10</v>
       </c>

--- a/Ülesanded.xlsx
+++ b/Ülesanded.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>Mis me tahame?</t>
   </si>
@@ -28,9 +28,6 @@
   </si>
   <si>
     <t>Vahelehed</t>
-  </si>
-  <si>
-    <t>Retsept ja ajalugu</t>
   </si>
   <si>
     <t>https://moodle.ut.ee/mod/page/view.php?id=530920&amp;inpopup=1</t>
@@ -138,6 +135,27 @@
   </si>
   <si>
     <t>font-family: 'Montserrat', sans-serif;</t>
+  </si>
+  <si>
+    <t>Avaleht</t>
+  </si>
+  <si>
+    <t>Galerii-Caro teeb pildid ja video</t>
+  </si>
+  <si>
+    <t>Retseptid ja ajalugu</t>
+  </si>
+  <si>
+    <t>Toitumisalane info</t>
+  </si>
+  <si>
+    <t>Palju energiat annab pakk mille jaoks?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ühises cssis on tekstide ja headerite fondid jne, background color jne </t>
+  </si>
+  <si>
+    <t>Kõigepealt tuleb teha avaleht</t>
   </si>
 </sst>
 </file>
@@ -501,15 +519,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q12"/>
+  <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9.54296875" customWidth="1"/>
+    <col min="6" max="6" width="12.90625" customWidth="1"/>
     <col min="12" max="12" width="52.26953125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -523,80 +542,100 @@
         <v>1</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>3</v>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>13</v>
-      </c>
       <c r="M8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="F9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="M9" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="M10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q10" t="s">
         <v>7</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="M11" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="F12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Ülesanded.xlsx
+++ b/Ülesanded.xlsx
@@ -522,7 +522,7 @@
   <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Ülesanded.xlsx
+++ b/Ülesanded.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13B3CE53-AAC6-4513-9712-B278921BD850}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -161,8 +162,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -240,8 +241,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Hüperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normaallaad" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -518,26 +519,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.6"/>
   <cols>
-    <col min="1" max="1" width="9.54296875" customWidth="1"/>
-    <col min="6" max="6" width="12.90625" customWidth="1"/>
-    <col min="12" max="12" width="52.26953125" customWidth="1"/>
+    <col min="1" max="1" width="9.53515625" customWidth="1"/>
+    <col min="6" max="6" width="12.921875" customWidth="1"/>
+    <col min="12" max="12" width="52.23046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -545,7 +546,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -565,12 +566,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17">
       <c r="A6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -584,7 +585,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17">
       <c r="F9" t="s">
         <v>14</v>
       </c>
@@ -595,7 +596,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17">
       <c r="M10" s="3" t="s">
         <v>6</v>
       </c>
@@ -603,7 +604,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -617,7 +618,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17">
       <c r="F12" t="s">
         <v>14</v>
       </c>
@@ -628,19 +629,19 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17">
       <c r="A16" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1">
       <c r="A17" t="s">
         <v>25</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="M3" r:id="rId1"/>
+    <hyperlink ref="M3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
